--- a/Projects/PriceComparison/ExcelFiles/ML_list.xlsx
+++ b/Projects/PriceComparison/ExcelFiles/ML_list.xlsx
@@ -458,97 +458,97 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R$2.770</t>
+          <t>R$2.633</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3060-36nol7md1voc-12gb/p/MLB17716910?pdp_filters=category:MLB1658#searchVariation=MLB17716910&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3060-36nol7md1voc-12gb/p/MLB17716910?pdp_filters=category:MLB1658#searchVariation=MLB17716910&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 30 Series RTX 3060 GEFORCE RTX 3060 VENTUS 3X 12G OC 12GB</t>
+          <t>Placa de vídeo Nvidia Galax  GeForce RTX 30 Series RTX 3060 Ti 36ISL6MD1VQW 8GB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R$2.670</t>
+          <t>R$3.299</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-30-series-rtx-3060-geforce-rtx-3060-ventus-3x-12g-oc-12gb/p/MLB18623930?pdp_filters=category:MLB1658#searchVariation=MLB18623930&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3060-ti-36isl6md1vqw-8gb/p/MLB18438237?pdp_filters=category:MLB1658#searchVariation=MLB18438237&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Galax  OC Series GeForce RTX 30 Series RTX 3070 37NSL6MD2KCH 8GBpor Imperiums</t>
+          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 20 Series RTX 2060 GEFORCE RTX 2060 VENTUS 6G OC OC Edition 6GB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R$3.800</t>
+          <t>R$2.084</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-oc-series-geforce-rtx-30-series-rtx-3070-37nsl6md2kch-8gb/p/MLB18595238?pdp_filters=category:MLB1658#searchVariation=MLB18595238&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-20-series-rtx-2060-geforce-rtx-2060-ventus-6g-oc-oc-edition-6gb/p/MLB15171293?pdp_filters=category:MLB1658#searchVariation=MLB15171293&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Galax  GeForce RTX 20 Series RTX 2060 SUPER 26ISL6HP68LD 8GB</t>
+          <t>Placa de vídeo Nvidia Galax  OC Series GeForce RTX 30 Series RTX 3070 37NSL6MD2KCH 8GBpor Imperiums</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R$2.104</t>
+          <t>R$3.800</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-20-series-rtx-2060-super-26isl6hp68ld-8gb/p/MLB16076950?pdp_filters=category:MLB1658#searchVariation=MLB16076950&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-oc-series-geforce-rtx-30-series-rtx-3070-37nsl6md2kch-8gb/p/MLB18595238?pdp_filters=category:MLB1658#searchVariation=MLB18595238&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Gainward  Ghost GeForce RTX 30 Series RTX 3060 Ti NE6306T019P2-190AB 8GB</t>
+          <t>Placa de vídeo Nvidia Gainward  Ghost GeForce RTX 30 Series RTX 3050 NE63050019P1-190AB 8GB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R$3.199</t>
+          <t>R$2.101</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-ghost-geforce-rtx-30-series-rtx-3060-ti-ne6306t019p2-190ab-8gb/p/MLB16594905?pdp_filters=category:MLB1658#searchVariation=MLB16594905&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-ghost-geforce-rtx-30-series-rtx-3050-ne63050019p1-190ab-8gb/p/MLB18951038?pdp_filters=category:MLB1658#searchVariation=MLB18951038&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Galax  GeForce RTX 30 Series RTX 3070 Ti 37ISM6MD4COC 8GB</t>
+          <t>Placa de vídeo Nvidia Gigabyte  Vision GeForce RTX 30 Series RTX 3060 GV-N3060VISION OC-12GD (rev 2.0) OC Edition 12GB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R$4.959</t>
+          <t>R$3.900</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3070-ti-37ism6md4coc-8gb/p/MLB18913814?pdp_filters=category:MLB1658#searchVariation=MLB18913814&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gigabyte-vision-geforce-rtx-30-series-rtx-3060-gv-n3060vision-oc-12gd-rev-20-oc-edition-12gb/p/MLB19473176?pdp_filters=category:MLB1658#searchVariation=MLB19473176&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
@@ -565,126 +565,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-gamingpro-geforce-rtx-30-series-rtx-3080-ned3080s19ia-132aa-oc-edition-10gb/p/MLB16522065?pdp_filters=category:MLB1658#searchVariation=MLB16522065&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-gamingpro-geforce-rtx-30-series-rtx-3080-ned3080s19ia-132aa-oc-edition-10gb/p/MLB16522065?pdp_filters=category:MLB1658#searchVariation=MLB16522065&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Palit  GamingPro GeForce RTX 30 Series RTX 3070 Ti NED307T019P2-1046A 8GB</t>
+          <t>Placa de vídeo Nvidia Galax  GeForce RTX 20 Series RTX 2060 SUPER 26ISL6HP68LD 8GB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R$4.880</t>
+          <t>R$2.259</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-gamingpro-geforce-rtx-30-series-rtx-3070-ti-ned307t019p2-1046a-8gb/p/MLB18510741?pdp_filters=category:MLB1658#searchVariation=MLB18510741&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-20-series-rtx-2060-super-26isl6hp68ld-8gb/p/MLB16076950?pdp_filters=category:MLB1658#searchVariation=MLB16076950&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 30 Series RTX 3070 Ti GEFORCE RTX 3070 Ti VENTUS 3X 8G OC 8GB</t>
+          <t>Placa de vídeo Nvidia Gainward  Ghost GeForce RTX 30 Series RTX 3060 NE63060019K9-190AU 12GB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R$5.399</t>
+          <t>R$3.390</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-30-series-rtx-3070-ti-geforce-rtx-3070-ti-ventus-3x-8g-oc-8gb/p/MLB18601712?pdp_filters=category:MLB1658#searchVariation=MLB18601712&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-ghost-geforce-rtx-30-series-rtx-3060-ne63060019k9-190au-12gb/p/MLB17462582?pdp_filters=category:MLB1658#searchVariation=MLB17462582&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Galax  GeForce RTX 30 Series RTX 3080 Ti 38IOM5MD99DD 12GBpor Shop B</t>
+          <t>Placa de vídeo Nvidia Galax  GeForce RTX 20 Series RTX 2060 26NRL7HP68CX 6GB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R$8.000</t>
+          <t>R$1.999</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3080-ti-38iom5md99dd-12gb/p/MLB19040946?pdp_filters=category:MLB1658#searchVariation=MLB19040946&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-20-series-rtx-2060-26nrl7hp68cx-6gb/p/MLB19046828?pdp_filters=category:MLB1658#searchVariation=MLB19046828&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Galax  EX GeForce GTX 16 Series GTX 1650 65SQL8DS66E6 4GB</t>
+          <t>Placa de vídeo Nvidia Palit  GamingPro GeForce RTX 30 Series RTX 3070 Ti NED307T019P2-1046A 8GB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R$1.399</t>
+          <t>R$4.880</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-ex-geforce-gtx-16-series-gtx-1650-65sql8ds66e6-4gb/p/MLB15992942?pdp_filters=category:MLB1658#searchVariation=MLB15992942&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-gamingpro-geforce-rtx-30-series-rtx-3070-ti-ned307t019p2-1046a-8gb/p/MLB18510741?pdp_filters=category:MLB1658#searchVariation=MLB18510741&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Galax  GeForce RTX 30 Series RTX 3060 Ti 36ISL6MD1VQW 8GB</t>
+          <t>Placa de vídeo Nvidia Palit  Dual GeForce RTX 30 Series RTX 3060 Ti NE6306T019P2-190AD 8GB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R$3.299</t>
+          <t>R$3.200</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3060-ti-36isl6md1vqw-8gb/p/MLB18438237?pdp_filters=category:MLB1658#searchVariation=MLB18438237&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-dual-geforce-rtx-30-series-rtx-3060-ti-ne6306t019p2-190ad-8gb/p/MLB18287747?pdp_filters=category:MLB1658#searchVariation=MLB18287747&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Palit  Dual GeForce RTX 30 Series RTX 3060 Ti NE6306T019P2-190AD 8GB</t>
+          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 30 Series RTX 3060 GEFORCE RTX 3060 VENTUS 3X 12G OC 12GB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R$3.200</t>
+          <t>R$2.777</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-dual-geforce-rtx-30-series-rtx-3060-ti-ne6306t019p2-190ad-8gb/p/MLB18287747?pdp_filters=category:MLB1658#searchVariation=MLB18287747&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-30-series-rtx-3060-geforce-rtx-3060-ventus-3x-12g-oc-12gb/p/MLB18623930?pdp_filters=category:MLB1658#searchVariation=MLB18623930&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Gigabyte  Vision GeForce RTX 30 Series RTX 3060 GV-N3060VISION OC-12GD (rev 2.0) OC Edition 12GB</t>
+          <t>Placa de vídeo Nvidia Galax  GeForce RTX 20 Series RTX 2060 26NRL7HP68NC 12GB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R$3.900</t>
+          <t>R$2.160</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gigabyte-vision-geforce-rtx-30-series-rtx-3060-gv-n3060vision-oc-12gd-rev-20-oc-edition-12gb/p/MLB19473176?pdp_filters=category:MLB1658#searchVariation=MLB19473176&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-20-series-rtx-2060-26nrl7hp68nc-12gb/p/MLB19563366?pdp_filters=category:MLB1658#searchVariation=MLB19563366&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
@@ -701,568 +701,568 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-dual-ne63050019p1-190ad-8gb/p/MLB19132464?pdp_filters=category:MLB1658#searchVariation=MLB19132464&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-dual-ne63050019p1-190ad-8gb/p/MLB19132464?pdp_filters=category:MLB1658#searchVariation=MLB19132464&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Gainward  Phoenix GeForce RTX 30 Series RTX 3080 NED3080019IA-132AX 10GBpor Shop B</t>
+          <t>Placa de vídeo Nvidia PNY  RTX Series T400 VCNT400-PB 2GBpor Tudo a Beca</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R$5.600</t>
+          <t>R$1.048</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-phoenix-geforce-rtx-30-series-rtx-3080-ned3080019ia-132ax-10gb/p/MLB16185506?pdp_filters=category:MLB1658#searchVariation=MLB16185506&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-pny-rtx-series-t400-vcnt400-pb-2gb/p/MLB18564577?pdp_filters=category:MLB1658#searchVariation=MLB18564577&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Gainward  Ghost GeForce RTX 30 Series RTX 3050 NE63050019P1-190AB 8GB</t>
+          <t>Placa de vídeo Nvidia Galax  GeForce RTX 30 Series RTX 3080 Ti 38IOM5MD99DD 12GBpor Shop B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R$2.101</t>
+          <t>R$8.000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-ghost-geforce-rtx-30-series-rtx-3050-ne63050019p1-190ab-8gb/p/MLB18951038?pdp_filters=category:MLB1658#searchVariation=MLB18951038&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3080-ti-38iom5md99dd-12gb/p/MLB19040946?pdp_filters=category:MLB1658#searchVariation=MLB19040946&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 20 Series RTX 2060 GEFORCE RTX 2060 VENTUS 6G OC OC Edition 6GB</t>
+          <t>Placa de vídeo Nvidia Gigabyte  Eagle GeForce RTX 30 Series RTX 3060 GV-N3060EAGLE-12GD (rev. 2.0) 12GB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R$2.188</t>
+          <t>R$3.098</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-20-series-rtx-2060-geforce-rtx-2060-ventus-6g-oc-oc-edition-6gb/p/MLB15171293?pdp_filters=category:MLB1658#searchVariation=MLB15171293&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gigabyte-eagle-geforce-rtx-30-series-rtx-3060-gv-n3060eagle-12gd-rev-20-12gb/p/MLB18625111?pdp_filters=category:MLB1658#searchVariation=MLB18625111&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Galax  GeForce RTX 20 Series RTX 2060 26NRL7HP68CX 6GB</t>
+          <t>Placa de vídeo Nvidia Galax  SG GeForce RTX 30 Series RTX 3080 38NWM3MD99NN 10GBpor INPOWER</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R$1.999</t>
+          <t>R$11.499</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-20-series-rtx-2060-26nrl7hp68cx-6gb/p/MLB19046828?pdp_filters=category:MLB1658#searchVariation=MLB19046828&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-sg-geforce-rtx-30-series-rtx-3080-38nwm3md99nn-10gb/p/MLB17799399?pdp_filters=category:MLB1658#searchVariation=MLB17799399&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Gigabyte  Eagle GeForce RTX 30 Series RTX 3060 GV-N3060EAGLE-12GD (rev. 2.0) 12GB</t>
+          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 30 Series RTX 3070 Ti GEFORCE RTX 3070 Ti VENTUS 3X 8G OC 8GB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R$3.098</t>
+          <t>R$4.999</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gigabyte-eagle-geforce-rtx-30-series-rtx-3060-gv-n3060eagle-12gd-rev-20-12gb/p/MLB18625111?pdp_filters=category:MLB1658#searchVariation=MLB18625111&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-30-series-rtx-3070-ti-geforce-rtx-3070-ti-ventus-3x-8g-oc-8gb/p/MLB18601712?pdp_filters=category:MLB1658#searchVariation=MLB18601712&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Palit  Dual GeForce RTX 30 Series RTX 3060 NE63060019K9-190AD 12GB</t>
+          <t>Placa de vídeo Nvidia Gainward  Phoenix GeForce RTX 30 Series RTX 3080 NED3080019IA-132AX 10GBpor Shop B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R$3.000</t>
+          <t>R$5.600</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-dual-geforce-rtx-30-series-rtx-3060-ne63060019k9-190ad-12gb/p/MLB18597758?pdp_filters=category:MLB1658#searchVariation=MLB18597758&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-phoenix-geforce-rtx-30-series-rtx-3080-ned3080019ia-132ax-10gb/p/MLB16185506?pdp_filters=category:MLB1658#searchVariation=MLB16185506&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Galax  GeForce RTX 20 Series RTX 2060 26NRL7HP68NC 12GB</t>
+          <t>Placa de vídeo Nvidia Gigabyte  GeForce RTX 20 Series RTX 2060 GV-N2060D6-6GD (rev. 2.0) 6GB</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R$2.160</t>
+          <t>R$1.998</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-20-series-rtx-2060-26nrl7hp68nc-12gb/p/MLB19563366?pdp_filters=category:MLB1658#searchVariation=MLB19563366&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gigabyte-geforce-rtx-20-series-rtx-2060-gv-n2060d6-6gd-rev-20-6gb/p/MLB18617723?pdp_filters=category:MLB1658#searchVariation=MLB18617723&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Galax  GeForce RTX 30 Series RTX 3070 EX LHR 37NSL6MD2VXI 8GBpor Shop B</t>
+          <t>Placa de vídeo Nvidia Palit  Dual GeForce RTX 30 Series RTX 3060 NE63060019K9-190AD 12GB</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R$4.000</t>
+          <t>R$3.000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3070-ex-lhr-37nsl6md2vxi-8gb/p/MLB19563368?pdp_filters=category:MLB1658#searchVariation=MLB19563368&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-dual-geforce-rtx-30-series-rtx-3060-ne63060019k9-190ad-12gb/p/MLB18597758?pdp_filters=category:MLB1658#searchVariation=MLB18597758&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Palit  GamingPro GeForce RTX 30 Series RTX 3070 NE63070019P2-1041A 8GB</t>
+          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 30 Series RTX 3090 GEFORCE RTX 3090 VENTUS 3X 24G 24GB</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R$4.960</t>
+          <t>R$9.499</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-gamingpro-geforce-rtx-30-series-rtx-3070-ne63070019p2-1041a-8gb/p/MLB18708388?pdp_filters=category:MLB1658#searchVariation=MLB18708388&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-30-series-rtx-3090-geforce-rtx-3090-ventus-3x-24g-24gb/p/MLB16262343?pdp_filters=category:MLB1658#searchVariation=MLB16262343&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Gainward  Phoenix GeForce RTX 30 Series RTX 3070 Ti NED307T019P2-1046X 8GB</t>
+          <t>Placa de vídeo Nvidia Asus  Dual GeForce RTX 30 Series RTX 3060 DUAL-RTX3060-O12G-V2 OC Edition 12GB</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R$4.314</t>
+          <t>R$2.999</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-phoenix-geforce-rtx-30-series-rtx-3070-ti-ned307t019p2-1046x-8gb/p/MLB18471927?pdp_filters=category:MLB1658#searchVariation=MLB18471927&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-asus-dual-geforce-rtx-30-series-rtx-3060-dual-rtx3060-o12g-v2-oc-edition-12gb/p/MLB18761117?pdp_filters=category:MLB1658#searchVariation=MLB18761117&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia PNY  RTX Series T400 VCNT400-PB 2GB</t>
+          <t>Placa de vídeo Nvidia PNY  RTX Series T600 VCNT600-PB 4GB</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R$1.200</t>
+          <t>R$1.749</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-pny-rtx-series-t400-vcnt400-pb-2gb/p/MLB18564577?pdp_filters=category:MLB1658#searchVariation=MLB18564577&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-pny-rtx-series-t600-vcnt600-pb-4gb/p/MLB18482889?pdp_filters=category:MLB1658#searchVariation=MLB18482889&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Galax  GeForce RTX 20 Series RTX 2060 26NRL7HPX7OC 6GB</t>
+          <t>Placa de vídeo Nvidia Gainward  Ghost GeForce RTX 30 Series RTX 3060 Ti NE6306T019P2-190AB 8GB</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R$2.045</t>
+          <t>R$3.199</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-20-series-rtx-2060-26nrl7hpx7oc-6gb/p/MLB15971892?pdp_filters=category:MLB1658#searchVariation=MLB15971892&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-ghost-geforce-rtx-30-series-rtx-3060-ti-ne6306t019p2-190ab-8gb/p/MLB16594905?pdp_filters=category:MLB1658#searchVariation=MLB16594905&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia PNY  RTX Series T600 VCNT600-PB 4GB</t>
+          <t>Placa de vídeo Nvidia Gainward  Phoenix GeForce RTX 30 Series RTX 3070 Ti NED307T019P2-1046X 8GB</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R$1.749</t>
+          <t>R$4.559</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-pny-rtx-series-t600-vcnt600-pb-4gb/p/MLB18482889?pdp_filters=category:MLB1658#searchVariation=MLB18482889&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-phoenix-geforce-rtx-30-series-rtx-3070-ti-ned307t019p2-1046x-8gb/p/MLB18471927?pdp_filters=category:MLB1658#searchVariation=MLB18471927&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 30 Series RTX 3090 GEFORCE RTX 3090 VENTUS 3X 24G 24GB</t>
+          <t>Placa De Vídeo Galax Geforce Rtx 3050 Ex 8gb Ddr6 128bits</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R$9.499</t>
+          <t>R$1.990</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-30-series-rtx-3090-geforce-rtx-3090-ventus-3x-24g-24gb/p/MLB16262343?pdp_filters=category:MLB1658#searchVariation=MLB16262343&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2799850930-placa-de-video-galax-geforce-rtx-3050-ex-8gb-ddr6-128bits-_JM#position=46&amp;search_layout=grid&amp;type=item&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Galax  GeForce RTX 30 Series RTX 3080 38NWM3MD99RG 10GB</t>
+          <t>Placa de vídeo Nvidia Palit  GamingPro GeForce RTX 30 Series RTX 3070 NE63070019P2-1041A 8GB</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R$6.700</t>
+          <t>R$4.960</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3080-38nwm3md99rg-10gb/p/MLB19040943?pdp_filters=category:MLB1658#searchVariation=MLB19040943&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-gamingpro-geforce-rtx-30-series-rtx-3070-ne63070019p2-1041a-8gb/p/MLB18708388?pdp_filters=category:MLB1658#searchVariation=MLB18708388&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Gigabyte  GeForce RTX 20 Series RTX 2060 GV-N2060D6-6GD (rev. 2.0) 6GB</t>
+          <t>Placa de vídeo Nvidia Gainward  Pegasus GeForce RTX 30 Series RTX 3050 NE63050019P1-190AE 8GB</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R$1.998</t>
+          <t>R$2.490</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gigabyte-geforce-rtx-20-series-rtx-2060-gv-n2060d6-6gd-rev-20-6gb/p/MLB18617723?pdp_filters=category:MLB1658#searchVariation=MLB18617723&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-pegasus-geforce-rtx-30-series-rtx-3050-ne63050019p1-190ae-8gb/p/MLB19036952?pdp_filters=category:MLB1658#searchVariation=MLB19036952&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Gainward  Phoenix GeForce RTX 30 Series RTX 3070 GEFORCE RTX 3070 Phoenix 8GB</t>
+          <t>Placa de vídeo Nvidia Galax  GeForce RTX 30 Series RTX 3070 EX LHR 37NSL6MD2VXI 8GBpor Shop B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R$4.610</t>
+          <t>R$4.000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-phoenix-geforce-rtx-30-series-rtx-3070-geforce-rtx-3070-phoenix-8gb/p/MLB16213593?pdp_filters=category:MLB1658#searchVariation=MLB16213593&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3070-ex-lhr-37nsl6md2vxi-8gb/p/MLB19563368?pdp_filters=category:MLB1658#searchVariation=MLB19563368&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Asus  TUF Gaming GeForce RTX 30 Series RTX 3060 TUF-RTX3060-O12G-V2-GAMING OC Edition 12GB</t>
+          <t>Placa de vídeo Nvidia Galax  GeForce RTX 30 Series RTX 3070 Ti 37ISM6MD4COC 8GB</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R$3.272</t>
+          <t>R$4.959</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-asus-tuf-gaming-geforce-rtx-30-series-rtx-3060-tuf-rtx3060-o12g-v2-gaming-oc-edition-12gb/p/MLB18471929?pdp_filters=category:MLB1658#searchVariation=MLB18471929&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3070-ti-37ism6md4coc-8gb/p/MLB18913814?pdp_filters=category:MLB1658#searchVariation=MLB18913814&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Gainward  Pegasus GeForce RTX 30 Series RTX 3050 NE63050019P1-190AE 8GB</t>
+          <t>Placa de vídeo Nvidia Galax  GeForce RTX 30 Series RTX 3080 38NWM3MD99RG 10GB</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R$2.490</t>
+          <t>R$6.700</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-pegasus-geforce-rtx-30-series-rtx-3050-ne63050019p1-190ae-8gb/p/MLB19036952?pdp_filters=category:MLB1658#searchVariation=MLB19036952&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3080-38nwm3md99rg-10gb/p/MLB19040943?pdp_filters=category:MLB1658#searchVariation=MLB19040943&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Asus  Dual GeForce RTX 30 Series RTX 3070 DUAL-RTX3070-O8G-V2 OC Edition 8GB</t>
+          <t>Placa de vídeo Nvidia Galax  GeForce RTX 20 Series RTX 2060 26NRL7HPX7OC 6GB</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R$5.377</t>
+          <t>R$2.145</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-asus-dual-geforce-rtx-30-series-rtx-3070-dual-rtx3070-o8g-v2-oc-edition-8gb/p/MLB18519492?pdp_filters=category:MLB1658#searchVariation=MLB18519492&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-20-series-rtx-2060-26nrl7hpx7oc-6gb/p/MLB15971892?pdp_filters=category:MLB1658#searchVariation=MLB15971892&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Zotac  Gaming GeForce RTX 20 Series RTX 2060 ZT-T20600H-10M 6GB</t>
+          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 30 Series RTX 3060 Ti GEFORCE RTX 3060 Ti VENTUS 2X 8G OCV1 LHR 8GB</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R$2.414</t>
+          <t>R$4.029</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-zotac-gaming-geforce-rtx-20-series-rtx-2060-zt-t20600h-10m-6gb/p/MLB16184591?pdp_filters=category:MLB1658#searchVariation=MLB16184591&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-30-series-rtx-3060-ti-geforce-rtx-3060-ti-ventus-2x-8g-ocv1-lhr-8gb/p/MLB18442694?pdp_filters=category:MLB1658#searchVariation=MLB18442694&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 30 Series RTX 3080 GEFORCE RTX 3080 VENTUS 3X 10G OC OC Edition 10GB</t>
+          <t>Placa de vídeo Nvidia Asus  Dual GeForce RTX 30 Series RTX 3050 DUAL-RTX3050-O8G OC Edition 8GB</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R$5.780</t>
+          <t>R$2.199</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-30-series-rtx-3080-geforce-rtx-3080-ventus-3x-10g-oc-oc-edition-10gb/p/MLB19147952?pdp_filters=category:MLB1658#searchVariation=MLB19147952&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-asus-dual-geforce-rtx-30-series-rtx-3050-dual-rtx3050-o8g-oc-edition-8gb/p/MLB19038115?pdp_filters=category:MLB1658#searchVariation=MLB19038115&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Asus  Dual GeForce RTX 30 Series RTX 3060 DUAL-RTX3060-O12G-V2 OC Edition 12GBpor Olist</t>
+          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 30 Series RTX 3080 GEFORCE RTX 3080 VENTUS 3X 10G OC OC Edition 10GB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R$3.405</t>
+          <t>R$5.780</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-asus-dual-geforce-rtx-30-series-rtx-3060-dual-rtx3060-o12g-v2-oc-edition-12gb/p/MLB18761117?pdp_filters=category:MLB1658#searchVariation=MLB18761117&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-30-series-rtx-3080-geforce-rtx-3080-ventus-3x-10g-oc-oc-edition-10gb/p/MLB19147952?pdp_filters=category:MLB1658#searchVariation=MLB19147952&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 30 Series RTX 3070 GEFORCE RTX 3070 VENTUS 2X OC OC Edition 8GB</t>
+          <t>Placa de vídeo Nvidia Asus  TUF Gaming GeForce RTX 30 Series RTX 3060 TUF-RTX3060-O12G-V2-GAMING OC Edition 12GB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R$3.980</t>
+          <t>R$3.272</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-30-series-rtx-3070-geforce-rtx-3070-ventus-2x-oc-oc-edition-8gb/p/MLB16598356?pdp_filters=category:MLB1658#searchVariation=MLB16598356&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-asus-tuf-gaming-geforce-rtx-30-series-rtx-3060-tuf-rtx3060-o12g-v2-gaming-oc-edition-12gb/p/MLB18471929?pdp_filters=category:MLB1658#searchVariation=MLB18471929&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Palit  StormX GeForce RTX 30 Series RTX 3060 NE63060019K9-190AF 12GB</t>
+          <t>Placa de vídeo Nvidia Gigabyte  Gaming GeForce RTX 20 Series RTX 2060 GV-N2060GAMING OC-6GD OC Edition 6GB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R$2.899</t>
+          <t>R$4.599</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-stormx-geforce-rtx-30-series-rtx-3060-ne63060019k9-190af-12gb/p/MLB18564397?pdp_filters=category:MLB1658#searchVariation=MLB18564397&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gigabyte-gaming-geforce-rtx-20-series-rtx-2060-gv-n2060gaming-oc-6gd-oc-edition-6gb/p/MLB15004992?pdp_filters=category:MLB1658#searchVariation=MLB15004992&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 30 Series RTX 3060 Ti GEFORCE RTX 3060 Ti VENTUS 2X 8G OCV1 LHR 8GB</t>
+          <t>Placa de vídeo Nvidia Asus  Dual GeForce RTX 30 Series RTX 3060 Ti DUAL-RTX3060TI-O8G-V2 OC Edition 8GB</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R$4.500</t>
+          <t>R$3.959</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-30-series-rtx-3060-ti-geforce-rtx-3060-ti-ventus-2x-8g-ocv1-lhr-8gb/p/MLB18442694?pdp_filters=category:MLB1658#searchVariation=MLB18442694&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-asus-dual-geforce-rtx-30-series-rtx-3060-ti-dual-rtx3060ti-o8g-v2-oc-edition-8gb/p/MLB18470584?pdp_filters=category:MLB1658#searchVariation=MLB18470584&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Gigabyte  Gaming GeForce RTX 20 Series RTX 2060 GV-N2060GAMING OC-6GD OC Edition 6GB</t>
+          <t>Placa de vídeo Nvidia Palit  StormX GeForce RTX 30 Series RTX 3060 NE63060019K9-190AF 12GB</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R$4.599</t>
+          <t>R$2.899</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gigabyte-gaming-geforce-rtx-20-series-rtx-2060-gv-n2060gaming-oc-6gd-oc-edition-6gb/p/MLB15004992?pdp_filters=category:MLB1658#searchVariation=MLB15004992&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-stormx-geforce-rtx-30-series-rtx-3060-ne63060019k9-190af-12gb/p/MLB18564397?pdp_filters=category:MLB1658#searchVariation=MLB18564397&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Asus  Dual GeForce RTX 30 Series RTX 3060 Ti DUAL-RTX3060TI-O8G-V2 OC Edition 8GB</t>
+          <t>Placa de vídeo Nvidia Galax  EX GeForce GTX 16 Series GTX 1650 65SQL8DS66E6 4GB</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R$3.999</t>
+          <t>R$1.385</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-asus-dual-geforce-rtx-30-series-rtx-3060-ti-dual-rtx3060ti-o8g-v2-oc-edition-8gb/p/MLB18470584?pdp_filters=category:MLB1658#searchVariation=MLB18470584&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-ex-geforce-gtx-16-series-gtx-1650-65sql8ds66e6-4gb/p/MLB15992942?pdp_filters=category:MLB1658#searchVariation=MLB15992942&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Colorful  iGame Series GeForce RTX 30 Series RTX 3060 GEFORCE RTX 3060 ADVANCED OC 12G-V OC Edition 12GBpor Mymax</t>
+          <t>Placa de vídeo Nvidia PNY  RTX Series A4000 VCNRTXA4000-PB 16GB</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R$3.299</t>
+          <t>R$12.503</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-colorful-igame-series-geforce-rtx-30-series-rtx-3060-geforce-rtx-3060-advanced-oc-12g-v-oc-edition-12gb/p/MLB17481448?pdp_filters=category:MLB1658#searchVariation=MLB17481448&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-pny-rtx-series-a4000-vcnrtxa4000-pb-16gb/p/MLB18446933?pdp_filters=category:MLB1658#searchVariation=MLB18446933&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Asus  TUF Gaming GeForce RTX 30 Series RTX 3060 Ti TUF-RTX3060TI-O8G-V2-GAMING OC Edition 8GB</t>
+          <t>Placa de vídeo Nvidia PNY  RTX Series T1000 VCNT1000-PB 4GB</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R$5.400</t>
+          <t>R$2.824</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-asus-tuf-gaming-geforce-rtx-30-series-rtx-3060-ti-tuf-rtx3060ti-o8g-v2-gaming-oc-edition-8gb/p/MLB18519490?pdp_filters=category:MLB1658#searchVariation=MLB18519490&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-pny-rtx-series-t1000-vcnt1000-pb-4gb/p/MLB18448483?pdp_filters=category:MLB1658#searchVariation=MLB18448483&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Palit  Dual GeForce RTX 30 Series RTX 3060 NE63060T19K9-190AD OC Edition 12GBpor Super Brands</t>
+          <t>Placa de vídeo Nvidia Galax  GeForce RTX 30 Series RTX 3070 37NSL6MD2KOC 8GBpor Super Brands</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R$3.010</t>
+          <t>R$4.624</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-palit-dual-geforce-rtx-30-series-rtx-3060-ne63060t19k9-190ad-oc-edition-12gb/p/MLB17716518?pdp_filters=category:MLB1658#searchVariation=MLB17716518&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-galax-geforce-rtx-30-series-rtx-3070-37nsl6md2koc-8gb/p/MLB17820488?pdp_filters=category:MLB1658#searchVariation=MLB17820488&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia Gainward  Ghost GeForce RTX 30 Series RTX 3060 NE63060019K9-190AU 12GB</t>
+          <t>Placa De Vídeo Galax Geforce Rtx 2060 Super 8gb Gddr6 256bit</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R$3.390</t>
+          <t>R$2.590</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-ghost-geforce-rtx-30-series-rtx-3060-ne63060019k9-190au-12gb/p/MLB17462582?pdp_filters=category:MLB1658#searchVariation=MLB17462582&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2658882132-placa-de-video-galax-geforce-rtx-2060-super-8gb-gddr6-256bit-_JM#position=47&amp;search_layout=grid&amp;type=item&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Placa de vídeo Nvidia MSI  Ventus GeForce RTX 30 Series RTX 3050 GeForce RTX 3050 VENTUS 2X 8G OC OC Edition 8GB</t>
+          <t>Placa De Video Palit Geforce Rtx 3050 Dual 8gb Gddr6 Dlsspor VIKING</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R$2.267</t>
+          <t>R$3.599</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/placa-de-video-nvidia-msi-ventus-geforce-rtx-30-series-rtx-3050-geforce-rtx-3050-ventus-2x-8g-oc-oc-edition-8gb/p/MLB19553303?pdp_filters=category:MLB1658#searchVariation=MLB19553303&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=284b31f1-3b6d-44b0-ba30-f9f6bec6afa0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2661124373-placa-de-video-palit-geforce-rtx-3050-dual-8gb-gddr6-dlss-_JM#position=48&amp;search_layout=grid&amp;type=item&amp;tracking_id=5a8078af-9e1f-4e6e-b9cd-c6e2061ee4e1</t>
         </is>
       </c>
     </row>
